--- a/evaluation/best_results.xlsx
+++ b/evaluation/best_results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lguan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lguan/Documents/Study/ASU/CSE 575 Statistical Machine Learning/Graph-Embedding-Algorithms/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33950842-5ABB-F844-9EEA-D67C40FAB26B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7B27F-3A73-CF42-90A0-1BD6A8188DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BAD8D954-232B-8740-B009-5BF2A445F6DD}"/>
+    <workbookView xWindow="-35560" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAD8D954-232B-8740-B009-5BF2A445F6DD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="blog-catalog" sheetId="1" r:id="rId1"/>
+    <sheet name="ppi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,11 +25,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+  <si>
+    <t>test_set_size</t>
+  </si>
+  <si>
+    <t>walks file</t>
+  </si>
+  <si>
+    <t>biased-random-walk-dfs-1574395368.081455</t>
+  </si>
+  <si>
+    <t>macro_f1 with word2vec</t>
+  </si>
+  <si>
+    <t>micro_f1 with word2vec</t>
+  </si>
+  <si>
+    <t>biased-walk-dfs</t>
+  </si>
+  <si>
+    <t>approximate-dfs-walk-1574390478.835981</t>
+  </si>
+  <si>
+    <t>approximate-dfs</t>
+  </si>
+  <si>
+    <t>approximate-bfs</t>
+  </si>
+  <si>
+    <t>approximate-bfs-walk-1574390184.660834</t>
+  </si>
+  <si>
+    <t>node2vec-random-walk-1574362363.178011</t>
+  </si>
+  <si>
+    <t>node2vec-walk</t>
+  </si>
+  <si>
+    <t>simple-random-walk</t>
+  </si>
+  <si>
+    <t>simple_random_walk-1574361871.648308</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +444,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F570716-1562-E44E-8EDB-72005B36B087}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" ht="24">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.27906411358342798</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.30175925138545301</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.29964999261321601</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.28970290464084703</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28455963821562602</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.28136848761003103</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.27111137101661398</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.25328339143254203</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.21706721149129901</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.22077162962859401</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.23507201579478099</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.231759902137016</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.232445702371503</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.22335466840542401</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.21590374338892701</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.20622439331353101</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.186716705849436</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.165349442231808</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.201003624057005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.215354641363148</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.21735358754548301</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.21862148651217</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.216058719974415</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.20649809337084701</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.203325333051359</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.17833249115941399</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.15965884084241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.222933849431243</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.24281523125725701</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.24289574923930499</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.23711870216605799</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.232424650437901</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.22675350839896399</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.21905266326751499</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.20543862527405399</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.17713664192203599</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.207415828707533</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.22025115882032401</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.221625322688563</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.21778646249130101</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.208665979043408</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.20667374214787801</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.19803479300804899</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.18242623426119201</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.16155166268211699</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="24">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.41147655703288999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.42153413089373698</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.41961151415867098</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.41471921869550099</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.41501258037461602</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.41006944444444399</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.40041699761715599</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.38965875627923102</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.36966205837173599</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.39398180545836298</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.399366643209008</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.38661362040720798</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.39797697942099802</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.39110986860497599</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.38101851851851898</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.37599285146942002</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.36610081413476497</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.35430107526881699</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.368789363191043</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.36734693877551</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.36789141118652002</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.378095570282525</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.37405647190383001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.36423611111111098</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.35980937251787098</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.34652693573532001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.3357910906298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.3925822253324</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.400070372976777</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.39480458694125897</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.39414021625392398</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.39097008666480298</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.38622685185185202</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.38006354249404301</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.37406894162480497</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.35215053763440901</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.383484954513646</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.38845883180858598</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.38427334425462201</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.38576909661667202</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.37894883980989702</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.37210648148148101</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.36546862589356599</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.35865234713320598</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.34316436251920102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEA373-FC8B-FF43-890F-32ABE335373B}">
+  <dimension ref="C4:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" ht="24">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.27906411358342798</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.30175925138545301</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.29964999261321601</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28970290464084703</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.28455963821562602</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.28136848761003103</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.27111137101661398</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.25328339143254203</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.21706721149129901</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22077162962859401</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.23507201579478099</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.231759902137016</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.232445702371503</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.22335466840542401</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.21590374338892701</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.20622439331353101</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.186716705849436</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.165349442231808</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.201003624057005</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.215354641363148</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.21735358754548301</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.21862148651217</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.216058719974415</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.20649809337084701</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.203325333051359</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.17833249115941399</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.15965884084241</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.222933849431243</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.24281523125725701</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.24289574923930499</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.23711870216605799</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.232424650437901</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.22675350839896399</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.21905266326751499</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.20543862527405399</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.17713664192203599</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.207415828707533</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.22025115882032401</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.221625322688563</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.21778646249130101</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.208665979043408</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.20667374214787801</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.19803479300804899</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.18242623426119201</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.16155166268211699</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="24">
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.41147655703288999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.42153413089373698</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.41961151415867098</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.41471921869550099</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.41501258037461602</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.41006944444444399</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.40041699761715599</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.38965875627923102</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.36966205837173599</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.39398180545836298</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.399366643209008</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.38661362040720798</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.39797697942099802</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.39110986860497599</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.38101851851851898</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.37599285146942002</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.36610081413476497</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.35430107526881699</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.368789363191043</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.36734693877551</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.36789141118652002</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.378095570282525</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.37405647190383001</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.36423611111111098</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.35980937251787098</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.34652693573532001</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.3357910906298</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.3925822253324</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.400070372976777</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.39480458694125897</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.39414021625392398</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.39097008666480298</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.38622685185185202</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.38006354249404301</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.37406894162480497</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.35215053763440901</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.383484954513646</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.38845883180858598</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.38427334425462201</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.38576909661667202</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.37894883980989702</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.37210648148148101</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.36546862589356599</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.35865234713320598</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.34316436251920102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/evaluation/best_results.xlsx
+++ b/evaluation/best_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lguan/Documents/Study/ASU/CSE 575 Statistical Machine Learning/Graph-Embedding-Algorithms/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7B27F-3A73-CF42-90A0-1BD6A8188DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77603E4-EBFE-E647-A5AA-ACDEFA4B7B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35560" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAD8D954-232B-8740-B009-5BF2A445F6DD}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +145,5788 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Macro-Blog</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biased-walk-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.27906411358342798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30175925138545301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29964999261321601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28970290464084703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28455963821562602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28136848761003103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27111137101661398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25328339143254203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21706721149129901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E61-1741-8357-B5D7113B0111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22077162962859401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23507201579478099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.231759902137016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.232445702371503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22335466840542401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21590374338892701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20622439331353101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.186716705849436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.165349442231808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E61-1741-8357-B5D7113B0111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.201003624057005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.215354641363148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21735358754548301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21862148651217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.216058719974415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20649809337084701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.203325333051359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17833249115941399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15965884084241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E61-1741-8357-B5D7113B0111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.222933849431243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24281523125725701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24289574923930499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23711870216605799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.232424650437901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22675350839896399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21905266326751499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20543862527405399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17713664192203599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E61-1741-8357-B5D7113B0111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-random-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.207415828707533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22025115882032401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.221625322688563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21778646249130101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.208665979043408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20667374214787801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19803479300804899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18242623426119201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16155166268211699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6E61-1741-8357-B5D7113B0111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="754517551"/>
+        <c:axId val="749177855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="754517551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749177855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="749177855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754517551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Micro-Blog</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biased-walk-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.41147655703288999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42153413089373698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41961151415867098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41471921869550099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41501258037461602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41006944444444399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40041699761715599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38965875627923102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36966205837173599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3688-7645-9B38-97921338CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.39398180545836298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.399366643209008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38661362040720798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39797697942099802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39110986860497599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38101851851851898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37599285146942002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36610081413476497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35430107526881699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3688-7645-9B38-97921338CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.368789363191043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36734693877551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36789141118652002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.378095570282525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37405647190383001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36423611111111098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35980937251787098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34652693573532001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3357910906298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3688-7645-9B38-97921338CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3925822253324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.400070372976777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39480458694125897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39414021625392398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39097008666480298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38622685185185202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38006354249404301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37406894162480497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35215053763440901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3688-7645-9B38-97921338CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'blog-catalog'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-random-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'blog-catalog'!$D$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.383484954513646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38845883180858598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38427334425462201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38576909661667202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37894883980989702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37210648148148101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36546862589356599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35865234713320598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34316436251920102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3688-7645-9B38-97921338CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="820625167"/>
+        <c:axId val="820626847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="820625167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820626847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="820626847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820625167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Macro-PPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biased-walk-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18740903372505099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19608284782853799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194621609149664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187617494433924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.182722915314632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16436696179662399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.163362166510408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15778821261294401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13848698017328401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21128921065397299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18486176758540601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17494997755872199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.177365451727166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18033241607914899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17847259292790599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16119827745865301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16442479541701599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13766349284284499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.206249360331409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.190456967780472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17784078787455701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17767776089592499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17333344468290099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16021387806172699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15471652381366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155397980859691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13190574058318599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.206815339127329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184286166895194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17909449434838101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17419145732954999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17350906403171301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16756113272444001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15849486988842201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.159923900316845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.137083896713628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-random-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19786588894149301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.192302099891173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18936469743414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18850384706266199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174504762361649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16999644324961899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16200666078503501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16151807535526599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141141831678887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="749446463"/>
+        <c:axId val="754820079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="749446463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754820079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="754820079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749446463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Micro-PPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>biased-walk-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23896499238964999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23214285714285701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23183391003460199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21735849056603801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20985787723011801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19338550870992199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19313767803193799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.185220364741641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17266430140226399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-dfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.270928462709285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23660714285714299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22145328719723201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21396226415094299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21288176595101299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21282504418076201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.198748381527838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19357902735562299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17671904037844199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approximate-bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.26940639269406402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22842261904761901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21898171033119099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.212830188679245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20108859993952199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187578894218632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18256365990505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17838145896656499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16506166582192899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node2vec-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$29:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.26636225266362301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23288690476190499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21997034107760799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21471698113207499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.205019655276686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19818227720272699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19076391886059599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.188449848024316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17266430140226399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-random-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.255707762557078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.224913494809689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.219245283018868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20108859993952199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19919212320121199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.195295640914976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18825987841945299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17671904037844199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="749462335"/>
+        <c:axId val="831621215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="749462335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831621215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="831621215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749462335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECFB33A-9357-6D48-8241-8B5C012ACFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>664057</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>264776</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C8126B-E1B9-1D47-9069-9C9412F67C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D5F73B-951B-1941-B74D-62706ADDF563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF53CA1-0BD5-6946-A1AA-3C2724AD843A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,22 +6228,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F570716-1562-E44E-8EDB-72005B36B087}">
   <dimension ref="B4:L30"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L30"/>
+    <sheetView topLeftCell="C1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" ht="24">
+    <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +6278,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -531,7 +6313,7 @@
         <v>0.21706721149129901</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -566,7 +6348,7 @@
         <v>0.165349442231808</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -601,7 +6383,7 @@
         <v>0.15965884084241</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -636,7 +6418,7 @@
         <v>0.17713664192203599</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -671,12 +6453,12 @@
         <v>0.16155166268211699</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="24">
+    <row r="24" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,7 +6493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -746,7 +6528,7 @@
         <v>0.36966205837173599</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -781,7 +6563,7 @@
         <v>0.35430107526881699</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -816,7 +6598,7 @@
         <v>0.3357910906298</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -851,7 +6633,7 @@
         <v>0.35215053763440901</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -889,6 +6671,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -896,22 +6679,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEA373-FC8B-FF43-890F-32ABE335373B}">
   <dimension ref="C4:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" ht="24">
+    <row r="4" spans="3:13" ht="24" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +6729,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -954,34 +6737,34 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>0.27906411358342798</v>
+        <v>0.18740903372505099</v>
       </c>
       <c r="F6" s="2">
-        <v>0.30175925138545301</v>
+        <v>0.19608284782853799</v>
       </c>
       <c r="G6" s="2">
-        <v>0.29964999261321601</v>
+        <v>0.194621609149664</v>
       </c>
       <c r="H6" s="2">
-        <v>0.28970290464084703</v>
+        <v>0.187617494433924</v>
       </c>
       <c r="I6" s="2">
-        <v>0.28455963821562602</v>
+        <v>0.182722915314632</v>
       </c>
       <c r="J6" s="2">
-        <v>0.28136848761003103</v>
+        <v>0.16436696179662399</v>
       </c>
       <c r="K6" s="2">
-        <v>0.27111137101661398</v>
+        <v>0.163362166510408</v>
       </c>
       <c r="L6" s="2">
-        <v>0.25328339143254203</v>
+        <v>0.15778821261294401</v>
       </c>
       <c r="M6" s="2">
-        <v>0.21706721149129901</v>
+        <v>0.13848698017328401</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -989,34 +6772,34 @@
         <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>0.22077162962859401</v>
+        <v>0.21128921065397299</v>
       </c>
       <c r="F7" s="2">
-        <v>0.23507201579478099</v>
+        <v>0.18486176758540601</v>
       </c>
       <c r="G7" s="2">
-        <v>0.231759902137016</v>
+        <v>0.17494997755872199</v>
       </c>
       <c r="H7" s="2">
-        <v>0.232445702371503</v>
+        <v>0.177365451727166</v>
       </c>
       <c r="I7" s="2">
-        <v>0.22335466840542401</v>
+        <v>0.18033241607914899</v>
       </c>
       <c r="J7" s="2">
-        <v>0.21590374338892701</v>
+        <v>0.17847259292790599</v>
       </c>
       <c r="K7" s="2">
-        <v>0.20622439331353101</v>
+        <v>0.16119827745865301</v>
       </c>
       <c r="L7" s="2">
-        <v>0.186716705849436</v>
+        <v>0.16442479541701599</v>
       </c>
       <c r="M7" s="2">
-        <v>0.165349442231808</v>
+        <v>0.13766349284284499</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -1024,34 +6807,34 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>0.201003624057005</v>
+        <v>0.206249360331409</v>
       </c>
       <c r="F8" s="2">
-        <v>0.215354641363148</v>
+        <v>0.190456967780472</v>
       </c>
       <c r="G8" s="2">
-        <v>0.21735358754548301</v>
+        <v>0.17784078787455701</v>
       </c>
       <c r="H8" s="2">
-        <v>0.21862148651217</v>
+        <v>0.17767776089592499</v>
       </c>
       <c r="I8" s="2">
-        <v>0.216058719974415</v>
+        <v>0.17333344468290099</v>
       </c>
       <c r="J8" s="2">
-        <v>0.20649809337084701</v>
+        <v>0.16021387806172699</v>
       </c>
       <c r="K8" s="2">
-        <v>0.203325333051359</v>
+        <v>0.15471652381366</v>
       </c>
       <c r="L8" s="2">
-        <v>0.17833249115941399</v>
+        <v>0.155397980859691</v>
       </c>
       <c r="M8" s="2">
-        <v>0.15965884084241</v>
+        <v>0.13190574058318599</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -1059,34 +6842,34 @@
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>0.222933849431243</v>
+        <v>0.206815339127329</v>
       </c>
       <c r="F9" s="2">
-        <v>0.24281523125725701</v>
+        <v>0.184286166895194</v>
       </c>
       <c r="G9" s="2">
-        <v>0.24289574923930499</v>
+        <v>0.17909449434838101</v>
       </c>
       <c r="H9" s="2">
-        <v>0.23711870216605799</v>
+        <v>0.17419145732954999</v>
       </c>
       <c r="I9" s="2">
-        <v>0.232424650437901</v>
+        <v>0.17350906403171301</v>
       </c>
       <c r="J9" s="2">
-        <v>0.22675350839896399</v>
+        <v>0.16756113272444001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.21905266326751499</v>
+        <v>0.15849486988842201</v>
       </c>
       <c r="L9" s="2">
-        <v>0.20543862527405399</v>
+        <v>0.159923900316845</v>
       </c>
       <c r="M9" s="2">
-        <v>0.17713664192203599</v>
+        <v>0.137083896713628</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -1094,39 +6877,42 @@
         <v>12</v>
       </c>
       <c r="E10" s="2">
-        <v>0.207415828707533</v>
+        <v>0.19786588894149301</v>
       </c>
       <c r="F10" s="2">
-        <v>0.22025115882032401</v>
+        <v>0.192302099891173</v>
       </c>
       <c r="G10" s="2">
-        <v>0.221625322688563</v>
+        <v>0.18936469743414</v>
       </c>
       <c r="H10" s="2">
-        <v>0.21778646249130101</v>
+        <v>0.18850384706266199</v>
       </c>
       <c r="I10" s="2">
-        <v>0.208665979043408</v>
+        <v>0.174504762361649</v>
       </c>
       <c r="J10" s="2">
-        <v>0.20667374214787801</v>
+        <v>0.16999644324961899</v>
       </c>
       <c r="K10" s="2">
-        <v>0.19803479300804899</v>
+        <v>0.16200666078503501</v>
       </c>
       <c r="L10" s="2">
-        <v>0.18242623426119201</v>
+        <v>0.16151807535526599</v>
       </c>
       <c r="M10" s="2">
-        <v>0.16155166268211699</v>
+        <v>0.141141831678887</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="24">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="24" spans="3:13" ht="24" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +6947,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -1169,34 +6955,34 @@
         <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>0.41147655703288999</v>
+        <v>0.23896499238964999</v>
       </c>
       <c r="F26" s="2">
-        <v>0.42153413089373698</v>
+        <v>0.23214285714285701</v>
       </c>
       <c r="G26" s="2">
-        <v>0.41961151415867098</v>
+        <v>0.23183391003460199</v>
       </c>
       <c r="H26" s="2">
-        <v>0.41471921869550099</v>
+        <v>0.21735849056603801</v>
       </c>
       <c r="I26" s="2">
-        <v>0.41501258037461602</v>
+        <v>0.20985787723011801</v>
       </c>
       <c r="J26" s="2">
-        <v>0.41006944444444399</v>
+        <v>0.19338550870992199</v>
       </c>
       <c r="K26" s="2">
-        <v>0.40041699761715599</v>
+        <v>0.19313767803193799</v>
       </c>
       <c r="L26" s="2">
-        <v>0.38965875627923102</v>
+        <v>0.185220364741641</v>
       </c>
       <c r="M26" s="2">
-        <v>0.36966205837173599</v>
+        <v>0.17266430140226399</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -1204,34 +6990,34 @@
         <v>7</v>
       </c>
       <c r="E27" s="2">
-        <v>0.39398180545836298</v>
+        <v>0.270928462709285</v>
       </c>
       <c r="F27" s="2">
-        <v>0.399366643209008</v>
+        <v>0.23660714285714299</v>
       </c>
       <c r="G27" s="2">
-        <v>0.38661362040720798</v>
+        <v>0.22145328719723201</v>
       </c>
       <c r="H27" s="2">
-        <v>0.39797697942099802</v>
+        <v>0.21396226415094299</v>
       </c>
       <c r="I27" s="2">
-        <v>0.39110986860497599</v>
+        <v>0.21288176595101299</v>
       </c>
       <c r="J27" s="2">
-        <v>0.38101851851851898</v>
+        <v>0.21282504418076201</v>
       </c>
       <c r="K27" s="2">
-        <v>0.37599285146942002</v>
+        <v>0.198748381527838</v>
       </c>
       <c r="L27" s="2">
-        <v>0.36610081413476497</v>
+        <v>0.19357902735562299</v>
       </c>
       <c r="M27" s="2">
-        <v>0.35430107526881699</v>
+        <v>0.17671904037844199</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>9</v>
       </c>
@@ -1239,34 +7025,34 @@
         <v>8</v>
       </c>
       <c r="E28" s="2">
-        <v>0.368789363191043</v>
+        <v>0.26940639269406402</v>
       </c>
       <c r="F28" s="2">
-        <v>0.36734693877551</v>
+        <v>0.22842261904761901</v>
       </c>
       <c r="G28" s="2">
-        <v>0.36789141118652002</v>
+        <v>0.21898171033119099</v>
       </c>
       <c r="H28" s="2">
-        <v>0.378095570282525</v>
+        <v>0.212830188679245</v>
       </c>
       <c r="I28" s="2">
-        <v>0.37405647190383001</v>
+        <v>0.20108859993952199</v>
       </c>
       <c r="J28" s="2">
-        <v>0.36423611111111098</v>
+        <v>0.187578894218632</v>
       </c>
       <c r="K28" s="2">
-        <v>0.35980937251787098</v>
+        <v>0.18256365990505</v>
       </c>
       <c r="L28" s="2">
-        <v>0.34652693573532001</v>
+        <v>0.17838145896656499</v>
       </c>
       <c r="M28" s="2">
-        <v>0.3357910906298</v>
+        <v>0.16506166582192899</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>10</v>
       </c>
@@ -1274,34 +7060,34 @@
         <v>11</v>
       </c>
       <c r="E29" s="2">
-        <v>0.3925822253324</v>
+        <v>0.26636225266362301</v>
       </c>
       <c r="F29" s="2">
-        <v>0.400070372976777</v>
+        <v>0.23288690476190499</v>
       </c>
       <c r="G29" s="2">
-        <v>0.39480458694125897</v>
+        <v>0.21997034107760799</v>
       </c>
       <c r="H29" s="2">
-        <v>0.39414021625392398</v>
+        <v>0.21471698113207499</v>
       </c>
       <c r="I29" s="2">
-        <v>0.39097008666480298</v>
+        <v>0.205019655276686</v>
       </c>
       <c r="J29" s="2">
-        <v>0.38622685185185202</v>
+        <v>0.19818227720272699</v>
       </c>
       <c r="K29" s="2">
-        <v>0.38006354249404301</v>
+        <v>0.19076391886059599</v>
       </c>
       <c r="L29" s="2">
-        <v>0.37406894162480497</v>
+        <v>0.188449848024316</v>
       </c>
       <c r="M29" s="2">
-        <v>0.35215053763440901</v>
+        <v>0.17266430140226399</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1309,34 +7095,35 @@
         <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>0.383484954513646</v>
+        <v>0.255707762557078</v>
       </c>
       <c r="F30" s="2">
-        <v>0.38845883180858598</v>
+        <v>0.234375</v>
       </c>
       <c r="G30" s="2">
-        <v>0.38427334425462201</v>
+        <v>0.224913494809689</v>
       </c>
       <c r="H30" s="2">
-        <v>0.38576909661667202</v>
+        <v>0.219245283018868</v>
       </c>
       <c r="I30" s="2">
-        <v>0.37894883980989702</v>
+        <v>0.20108859993952199</v>
       </c>
       <c r="J30" s="2">
-        <v>0.37210648148148101</v>
+        <v>0.19919212320121199</v>
       </c>
       <c r="K30" s="2">
-        <v>0.36546862589356599</v>
+        <v>0.195295640914976</v>
       </c>
       <c r="L30" s="2">
-        <v>0.35865234713320598</v>
+        <v>0.18825987841945299</v>
       </c>
       <c r="M30" s="2">
-        <v>0.34316436251920102</v>
+        <v>0.17671904037844199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/evaluation/best_results.xlsx
+++ b/evaluation/best_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lguan/Documents/Study/ASU/CSE 575 Statistical Machine Learning/Graph-Embedding-Algorithms/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77603E4-EBFE-E647-A5AA-ACDEFA4B7B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F330D2B-DD7C-0242-9511-8953156010EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35560" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BAD8D954-232B-8740-B009-5BF2A445F6DD}"/>
+    <workbookView xWindow="-34960" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{BAD8D954-232B-8740-B009-5BF2A445F6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="blog-catalog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>test_set_size</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>simple_random_walk-1574361871.648308</t>
+  </si>
+  <si>
+    <t>temperature-walk</t>
+  </si>
+  <si>
+    <t>bfs-dfs-combined</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1957,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1960,123 +1966,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>biased-walk-dfs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ppi!$E$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ppi!$E$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.18740903372505099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19608284782853799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.194621609149664</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.187617494433924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.182722915314632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16436696179662399</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.163362166510408</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15778821261294401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13848698017328401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4AC1-9942-8E9C-EEDB4366A260}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ppi!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>approximate-dfs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2143,36 +2032,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ppi!$E$7:$M$7</c:f>
+              <c:f>ppi!$E$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.21128921065397299</c:v>
+                  <c:v>0.18740903372505099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18486176758540601</c:v>
+                  <c:v>0.19608284782853799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17494997755872199</c:v>
+                  <c:v>0.194621609149664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.177365451727166</c:v>
+                  <c:v>0.187617494433924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18033241607914899</c:v>
+                  <c:v>0.182722915314632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17847259292790599</c:v>
+                  <c:v>0.16436696179662399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16119827745865301</c:v>
+                  <c:v>0.163362166510408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16442479541701599</c:v>
+                  <c:v>0.15778821261294401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13766349284284499</c:v>
+                  <c:v>0.13848698017328401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,14 +2075,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ppi!$D$8</c:f>
+              <c:f>ppi!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>approximate-bfs</c:v>
+                  <c:v>approximate-dfs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2260,36 +2149,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ppi!$E$8:$M$8</c:f>
+              <c:f>ppi!$E$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.206249360331409</c:v>
+                  <c:v>0.21128921065397299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.190456967780472</c:v>
+                  <c:v>0.18486176758540601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17784078787455701</c:v>
+                  <c:v>0.17494997755872199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17767776089592499</c:v>
+                  <c:v>0.177365451727166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17333344468290099</c:v>
+                  <c:v>0.18033241607914899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16021387806172699</c:v>
+                  <c:v>0.17847259292790599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15471652381366</c:v>
+                  <c:v>0.16119827745865301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.155397980859691</c:v>
+                  <c:v>0.16442479541701599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13190574058318599</c:v>
+                  <c:v>0.13766349284284499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2303,14 +2192,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ppi!$D$9</c:f>
+              <c:f>ppi!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>node2vec-walk</c:v>
+                  <c:v>approximate-bfs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2377,36 +2266,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ppi!$E$9:$M$9</c:f>
+              <c:f>ppi!$E$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.206815339127329</c:v>
+                  <c:v>0.206249360331409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.184286166895194</c:v>
+                  <c:v>0.190456967780472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17909449434838101</c:v>
+                  <c:v>0.17784078787455701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17419145732954999</c:v>
+                  <c:v>0.17767776089592499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17350906403171301</c:v>
+                  <c:v>0.17333344468290099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16756113272444001</c:v>
+                  <c:v>0.16021387806172699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15849486988842201</c:v>
+                  <c:v>0.15471652381366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.159923900316845</c:v>
+                  <c:v>0.155397980859691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.137083896713628</c:v>
+                  <c:v>0.13190574058318599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,14 +2309,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ppi!$D$10</c:f>
+              <c:f>ppi!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simple-random-walk</c:v>
+                  <c:v>node2vec-walk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2494,36 +2383,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ppi!$E$10:$M$10</c:f>
+              <c:f>ppi!$E$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.19786588894149301</c:v>
+                  <c:v>0.206815339127329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.192302099891173</c:v>
+                  <c:v>0.184286166895194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18936469743414</c:v>
+                  <c:v>0.17909449434838101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18850384706266199</c:v>
+                  <c:v>0.17419145732954999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.174504762361649</c:v>
+                  <c:v>0.17350906403171301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16999644324961899</c:v>
+                  <c:v>0.16756113272444001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16200666078503501</c:v>
+                  <c:v>0.15849486988842201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16151807535526599</c:v>
+                  <c:v>0.159923900316845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.141141831678887</c:v>
+                  <c:v>0.137083896713628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,6 +2421,246 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-random-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19786588894149301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.192302099891173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18936469743414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18850384706266199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174504762361649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16999644324961899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16200666078503501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16151807535526599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.141141831678887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4AC1-9942-8E9C-EEDB4366A260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>temperature-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.20848719302855101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19573537936042401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17911386181807501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17205512130384601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17408323654886801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16906742617693901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.159036808198288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15445238097868899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13650668026857801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4AC1-9942-8E9C-EEDB4366A260}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3044,7 +3173,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E305-8646-A85D-81CC63DE7C30}"/>
+              <c16:uniqueId val="{00000006-E305-8646-A85D-81CC63DE7C30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3161,7 +3290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E305-8646-A85D-81CC63DE7C30}"/>
+              <c16:uniqueId val="{00000007-E305-8646-A85D-81CC63DE7C30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3278,7 +3407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E305-8646-A85D-81CC63DE7C30}"/>
+              <c16:uniqueId val="{00000008-E305-8646-A85D-81CC63DE7C30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3395,7 +3524,124 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E305-8646-A85D-81CC63DE7C30}"/>
+              <c16:uniqueId val="{00000009-E305-8646-A85D-81CC63DE7C30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ppi!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>temperature-walk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ppi!$E$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ppi!$E$31:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.25266362252663599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22842261904761901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21552150271873499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20716981132075499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.205019655276686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20272658419591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.190979715148899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.183320668693009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.173002196316945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E305-8646-A85D-81CC63DE7C30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6226,10 +6472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F570716-1562-E44E-8EDB-72005B36B087}">
-  <dimension ref="B4:L30"/>
+  <dimension ref="B4:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="144" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6453,6 +6699,38 @@
         <v>0.16155166268211699</v>
       </c>
     </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.268375227971206</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.27456415267086998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.27206243713349598</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.271743118185583</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.26658620540975397</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.25967961466037898</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.24532227078149499</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.223624588565283</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.192192241365784</v>
+      </c>
+    </row>
     <row r="24" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>4</v>
@@ -6666,6 +6944,38 @@
       </c>
       <c r="L30" s="2">
         <v>0.34316436251920102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.41637508747375801</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.41555242786769903</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.41563304469927498</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.41332403208929203</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.40886217500698901</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.40104166666666702</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.39028991262907098</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.37346267105491099</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.35660522273425499</v>
       </c>
     </row>
   </sheetData>
@@ -6677,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEA373-FC8B-FF43-890F-32ABE335373B}">
-  <dimension ref="C4:M30"/>
+  <dimension ref="C4:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6904,8 +7214,37 @@
         <v>0.141141831678887</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E12" s="2"/>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.20848719302855101</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.19573537936042401</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.17911386181807501</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.17205512130384601</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.17408323654886801</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.16906742617693901</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.159036808198288</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.15445238097868899</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.13650668026857801</v>
+      </c>
     </row>
     <row r="24" spans="3:13" ht="24" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
@@ -7120,6 +7459,38 @@
       </c>
       <c r="M30" s="2">
         <v>0.17671904037844199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.25266362252663599</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.22842261904761901</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.21552150271873499</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.20716981132075499</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.205019655276686</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.20272658419591</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.190979715148899</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.183320668693009</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.173002196316945</v>
       </c>
     </row>
   </sheetData>
